--- a/inputcons/Resultat_Fusion.xlsx
+++ b/inputcons/Resultat_Fusion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="20">
   <si>
     <t>Mois</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Avril</t>
   </si>
   <si>
+    <t>Décembre</t>
+  </si>
+  <si>
     <t>Juillet</t>
   </si>
   <si>
@@ -46,10 +49,22 @@
     <t>Mai</t>
   </si>
   <si>
+    <t>Novembre</t>
+  </si>
+  <si>
     <t>Octobre</t>
   </si>
   <si>
     <t>Septembre</t>
+  </si>
+  <si>
+    <t>Février</t>
+  </si>
+  <si>
+    <t>Janvier</t>
+  </si>
+  <si>
+    <t>Mars</t>
   </si>
   <si>
     <t>DRINK</t>
@@ -416,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,10 +465,10 @@
         <v>13871350</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>32683000</v>
+        <v>32790500</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -467,10 +482,10 @@
         <v>3497400</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>5506500</v>
+        <v>5789500</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -484,10 +499,10 @@
         <v>855000</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>4597000</v>
+        <v>4801500</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -501,10 +516,10 @@
         <v>2281460</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>3567500</v>
+        <v>3203000</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -518,10 +533,10 @@
         <v>525790</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>1243500</v>
+        <v>1158500</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -535,7 +550,7 @@
         <v>166200</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>296000</v>
@@ -549,13 +564,13 @@
         <v>2023</v>
       </c>
       <c r="C8">
-        <v>11641050</v>
+        <v>11558450</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>22794750</v>
+        <v>25897000</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -566,13 +581,13 @@
         <v>2023</v>
       </c>
       <c r="C9">
-        <v>3047575</v>
+        <v>4082816</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9">
-        <v>4694750</v>
+        <v>6073000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -583,13 +598,13 @@
         <v>2023</v>
       </c>
       <c r="C10">
-        <v>782000</v>
+        <v>790000</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>3912500</v>
+        <v>5201500</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -600,13 +615,13 @@
         <v>2023</v>
       </c>
       <c r="C11">
-        <v>5414050</v>
+        <v>11641050</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>19669500</v>
+        <v>21952500</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -617,13 +632,13 @@
         <v>2023</v>
       </c>
       <c r="C12">
-        <v>2538900</v>
+        <v>3047575</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E12">
-        <v>4361750</v>
+        <v>4868000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -634,13 +649,13 @@
         <v>2023</v>
       </c>
       <c r="C13">
-        <v>417600</v>
+        <v>782000</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>2703000</v>
+        <v>3912500</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -651,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C14">
-        <v>3018750</v>
+        <v>5414050</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E14">
-        <v>10442500</v>
+        <v>18057500</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -668,13 +683,13 @@
         <v>2023</v>
       </c>
       <c r="C15">
-        <v>2368050</v>
+        <v>2538900</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E15">
-        <v>3720250</v>
+        <v>4562750</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -685,13 +700,13 @@
         <v>2023</v>
       </c>
       <c r="C16">
-        <v>322000</v>
+        <v>417600</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E16">
-        <v>1978500</v>
+        <v>2703000</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -702,13 +717,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>14205300</v>
+        <v>3018750</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E17">
-        <v>28209250</v>
+        <v>9957500</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -719,13 +734,13 @@
         <v>2023</v>
       </c>
       <c r="C18">
-        <v>3242900</v>
+        <v>2368050</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E18">
-        <v>5965250</v>
+        <v>3669250</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -736,13 +751,13 @@
         <v>2023</v>
       </c>
       <c r="C19">
-        <v>867500</v>
+        <v>322000</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E19">
-        <v>5628500</v>
+        <v>1978500</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -753,13 +768,13 @@
         <v>2023</v>
       </c>
       <c r="C20">
-        <v>11768250</v>
+        <v>12786850</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E20">
-        <v>37276000</v>
+        <v>26009500</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -770,13 +785,13 @@
         <v>2023</v>
       </c>
       <c r="C21">
-        <v>2752000</v>
+        <v>3574570</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E21">
-        <v>6023250</v>
+        <v>5663000</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -787,13 +802,319 @@
         <v>2023</v>
       </c>
       <c r="C22">
+        <v>791000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>5284500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>2023</v>
+      </c>
+      <c r="C23">
+        <v>14205300</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>27500500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>2023</v>
+      </c>
+      <c r="C24">
+        <v>3242900</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>6174000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>2023</v>
+      </c>
+      <c r="C25">
+        <v>867500</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>5628500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>2023</v>
+      </c>
+      <c r="C26">
+        <v>11768250</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>33778000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>2023</v>
+      </c>
+      <c r="C27">
+        <v>2752000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>5641750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>2023</v>
+      </c>
+      <c r="C28">
         <v>697500</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>5217000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>2024</v>
+      </c>
+      <c r="C29">
+        <v>7169850</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>15607500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>2024</v>
+      </c>
+      <c r="C30">
+        <v>2979225</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>3365000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>2024</v>
+      </c>
+      <c r="C31">
+        <v>620000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <v>4155500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>14</v>
       </c>
-      <c r="E22">
-        <v>5923000</v>
+      <c r="B32">
+        <v>2024</v>
+      </c>
+      <c r="C32">
+        <v>10338450</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>20741000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>2024</v>
+      </c>
+      <c r="C33">
+        <v>3345510</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>3913500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>2024</v>
+      </c>
+      <c r="C34">
+        <v>697500</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>4764500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>2024</v>
+      </c>
+      <c r="C35">
+        <v>13837500</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>27322000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>2024</v>
+      </c>
+      <c r="C36">
+        <v>3707340</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36">
+        <v>5460500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>2024</v>
+      </c>
+      <c r="C37">
+        <v>775000</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37">
+        <v>5270500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>2024</v>
+      </c>
+      <c r="C38">
+        <v>10630850</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <v>20181000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>2024</v>
+      </c>
+      <c r="C39">
+        <v>3208190</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>4034250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>2024</v>
+      </c>
+      <c r="C40">
+        <v>775000</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40">
+        <v>4822500</v>
       </c>
     </row>
   </sheetData>
